--- a/Companies/Diversified/ITC Ltd/Pruned_Excel/5_Sep18_Sep19.xlsx
+++ b/Companies/Diversified/ITC Ltd/Pruned_Excel/5_Sep18_Sep19.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Sep '18</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '18</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '19</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '19</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Sep '19</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '19</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '19</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '18</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '18</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>10,891.23</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>11,136.55</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11,850.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>11,361.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>11,750.16</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>11,361.35</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>11,850.23</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>11,136.55</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>10,891.23</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>11850.23</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>10891.23</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>11397.904</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>177.62</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>141.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>141.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>121.31</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>141.47</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>141.88</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.11</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>177.62</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>177.62</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>91.11</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>134.678</v>
       </c>
     </row>
     <row r="4">
@@ -586,37 +545,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>11,068.85</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>11,227.66</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11,992.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>11,502.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>11,871.47</t>
         </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>11,502.82</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>11,992.11</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>11,227.66</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>11,068.85</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>11992.11</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>11068.85</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>11532.582</v>
       </c>
     </row>
     <row r="5"/>
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>3,381.90</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3,414.82</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3,335.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3,098.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>3,408.42</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>3,098.29</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3,335.33</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3,414.82</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3,381.90</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>3414.82</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>3098.29</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>3327.752</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>876.09</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>838.57</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1,331.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1,816.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>742.32</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1,816.23</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1,331.28</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>838.57</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>876.09</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>1816.23</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>742.3200000000001</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>1120.898</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>21.68</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>47.12</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-51.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-774.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>330.98</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>-774.66</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>-51.02</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>47.12</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>21.68</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>330.98</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>-774.66</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>-85.17999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>596.31</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>629.17</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>759.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>690.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>632.26</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>690.31</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>759.99</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>629.17</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>596.31</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>759.99</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>596.3099999999999</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>661.6079999999999</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>327.47</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>335.36</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>350.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>358.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>395.67</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>358.89</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>350.18</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>335.36</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>327.47</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>395.67</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>327.47</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>353.514</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>1,986.90</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1,972.21</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2,044.88</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2,106.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>2,195.12</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2,106.97</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2,044.88</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1,972.21</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1,986.90</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>2195.12</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>1972.21</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>2061.216</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>3,878.50</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3,990.41</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4,221.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>4,206.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>4,166.70</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>4,206.79</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>4,221.47</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3,990.41</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3,878.50</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>4221.47</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>3878.5</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>4092.774</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>504.12</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>836.39</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>740.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>620.17</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>654.33</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>620.17</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>740.18</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>836.39</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>504.12</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>836.39</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>504.12</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>671.038</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>4,382.62</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4,826.80</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4,961.65</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>4,826.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>4,821.03</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>4,826.96</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>4,961.65</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>4,826.80</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4,382.62</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>4961.65</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>4382.62</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>4763.812</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>13.50</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>15.22</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>13.33</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>15.22</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>7.74</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>13.50</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>15.22</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>11.08</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>4,369.12</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>4,821.19</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4,953.91</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>4,811.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>4,807.70</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>4,811.74</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>4,953.91</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>4,821.19</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4,369.12</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>4953.91</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>4369.12</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>4752.732</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>4,369.12</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>4,821.19</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4,953.91</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>4,811.74</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>4,807.70</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>4,811.74</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>4,953.91</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>4,821.19</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4,369.12</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>4953.91</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>4369.12</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>4752.732</v>
       </c>
     </row>
     <row r="19">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>1,414.45</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1,612.12</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1,472.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1,637.80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>784.60</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1,637.80</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1,472.01</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1,612.12</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1,414.45</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>1637.8</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>784.6</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>1384.196</v>
       </c>
     </row>
     <row r="20">
@@ -1168,37 +1001,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>2,954.67</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>3,209.07</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3,481.90</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>3,173.94</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>4,023.10</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>3,173.94</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>3,481.90</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>3,209.07</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2,954.67</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>4023.1</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>2954.67</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>3368.536</v>
       </c>
     </row>
     <row r="21">
@@ -1209,37 +1033,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>2,954.67</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>3,209.07</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3,481.90</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>3,173.94</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>4,023.10</t>
         </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>3,173.94</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>3,481.90</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>3,209.07</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2,954.67</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>4023.1</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>2954.67</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>3368.536</v>
       </c>
     </row>
     <row r="22">
@@ -1250,37 +1065,28 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>1,224.19</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1,224.69</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1,225.86</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1,225.86</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>1,228.65</t>
         </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>1,225.86</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1,225.86</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>1,224.69</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1,224.19</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>1228.65</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>1224.19</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>1225.85</v>
       </c>
     </row>
     <row r="23"/>
@@ -1299,37 +1105,28 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>3.28</t>
         </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>2.75</v>
       </c>
     </row>
     <row r="26">
@@ -1340,37 +1137,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>3.27</t>
         </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>2.734</v>
       </c>
     </row>
     <row r="27"/>
@@ -1389,37 +1177,28 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>3.28</t>
         </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>2.75</v>
       </c>
     </row>
     <row r="30">
@@ -1430,37 +1209,28 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>3.27</t>
         </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>2.734</v>
       </c>
     </row>
     <row r="31"/>
